--- a/va_facility_data_2025-02-20/Fresno VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fresno%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fresno VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fresno%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rb646ac6e1514499f95d75ebcff643c34"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Radbd790679af46f8bea9955dbf7dd83b"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rec3abdc76ba8480d9bef6751a0340c5f"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R5f1597dc221e4e07ba24750a9d8742b7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R592fcc03ea814029b6c0005f22a42982"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Raba47674b263453ca1eccdfd209d9f06"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R61ba7d3d7e5d4f6d82f7c21370596e06"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R70e89aa9f17f4b6884d2211cabbaefcf"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc63637729d23435aa710c56c82e3bcc6"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rba84ab2f6deb462c846278ef158c2384"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R3b5f01436d0d4237abacadd049a1a468"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9fe4cccf8993490ab596e2290f85f734"/>
   </x:sheets>
 </x:workbook>
 </file>
